--- a/results/CIFAR100/simplecnn/noise_0.0/Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR100/simplecnn/noise_0.0/Adam/runs_and_aggregate.xlsx
@@ -487,7 +487,7 @@
         <v>14.38</v>
       </c>
       <c r="F2" t="n">
-        <v>34.19004416465759</v>
+        <v>26.83536648750305</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>20.25</v>
       </c>
       <c r="F3" t="n">
-        <v>32.93375515937805</v>
+        <v>26.42936158180237</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>24.92</v>
       </c>
       <c r="F4" t="n">
-        <v>32.28039288520813</v>
+        <v>26.63850498199463</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>26.65</v>
       </c>
       <c r="F5" t="n">
-        <v>31.91331768035889</v>
+        <v>26.70202946662903</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>29.06</v>
       </c>
       <c r="F6" t="n">
-        <v>31.90744090080261</v>
+        <v>26.68752598762512</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>31.43</v>
       </c>
       <c r="F7" t="n">
-        <v>32.118736743927</v>
+        <v>26.68219041824341</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>32.39</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89690446853638</v>
+        <v>26.62762475013733</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>33.78</v>
       </c>
       <c r="F9" t="n">
-        <v>32.03160333633423</v>
+        <v>26.79902958869934</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>35.58</v>
       </c>
       <c r="F10" t="n">
-        <v>31.93272733688354</v>
+        <v>26.72500348091125</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>35.51</v>
       </c>
       <c r="F11" t="n">
-        <v>32.60677027702332</v>
+        <v>26.833420753479</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>37.04</v>
       </c>
       <c r="F12" t="n">
-        <v>31.97831130027771</v>
+        <v>26.70390462875367</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>37.75</v>
       </c>
       <c r="F13" t="n">
-        <v>31.99307894706726</v>
+        <v>26.691734790802</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>37.71</v>
       </c>
       <c r="F14" t="n">
-        <v>32.06860899925232</v>
+        <v>26.67958521842957</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>38.78</v>
       </c>
       <c r="F15" t="n">
-        <v>32.46086621284485</v>
+        <v>26.70254111289978</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>38.92</v>
       </c>
       <c r="F16" t="n">
-        <v>31.93304634094238</v>
+        <v>26.72662425041199</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>38.82</v>
       </c>
       <c r="F17" t="n">
-        <v>32.09173369407654</v>
+        <v>26.53722834587097</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>39.96</v>
       </c>
       <c r="F18" t="n">
-        <v>32.21952033042908</v>
+        <v>26.6410915851593</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>40.49</v>
       </c>
       <c r="F19" t="n">
-        <v>31.4356496334076</v>
+        <v>26.6705129146576</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>40.49</v>
       </c>
       <c r="F20" t="n">
-        <v>31.41459131240845</v>
+        <v>26.56576704978943</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>40.83</v>
       </c>
       <c r="F21" t="n">
-        <v>32.06363558769226</v>
+        <v>26.98866891860962</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>13.82</v>
       </c>
       <c r="F2" t="n">
-        <v>33.09546303749084</v>
+        <v>26.96417093276977</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>20.35</v>
       </c>
       <c r="F3" t="n">
-        <v>32.77657127380371</v>
+        <v>26.66024994850159</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>32.6881730556488</v>
+        <v>26.71920442581177</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>26.08</v>
       </c>
       <c r="F5" t="n">
-        <v>31.93943285942078</v>
+        <v>26.68315935134888</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>29.3</v>
       </c>
       <c r="F6" t="n">
-        <v>32.00640630722046</v>
+        <v>26.75304913520813</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>30.32</v>
       </c>
       <c r="F7" t="n">
-        <v>31.89508032798767</v>
+        <v>26.72948503494263</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>32.15</v>
       </c>
       <c r="F8" t="n">
-        <v>32.11720204353333</v>
+        <v>26.66810154914856</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>32.94</v>
       </c>
       <c r="F9" t="n">
-        <v>32.03052830696106</v>
+        <v>26.74563002586365</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>33.3</v>
       </c>
       <c r="F10" t="n">
-        <v>31.94402432441711</v>
+        <v>26.67763829231263</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>35.1</v>
       </c>
       <c r="F11" t="n">
-        <v>32.4939227104187</v>
+        <v>26.88343358039856</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>35.99</v>
       </c>
       <c r="F12" t="n">
-        <v>32.0809211730957</v>
+        <v>26.79745745658875</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>36.1</v>
       </c>
       <c r="F13" t="n">
-        <v>31.89614725112915</v>
+        <v>26.66997885704041</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>37.97</v>
       </c>
       <c r="F14" t="n">
-        <v>31.97329592704773</v>
+        <v>26.76531839370728</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>38.53</v>
       </c>
       <c r="F15" t="n">
-        <v>31.9167869091034</v>
+        <v>26.78905320167541</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>39.12</v>
       </c>
       <c r="F16" t="n">
-        <v>31.92627263069153</v>
+        <v>26.70238089561462</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>39.03</v>
       </c>
       <c r="F17" t="n">
-        <v>32.10435819625854</v>
+        <v>26.56805348396301</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>39.24</v>
       </c>
       <c r="F18" t="n">
-        <v>32.82017874717712</v>
+        <v>26.67107510566711</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>40.37</v>
       </c>
       <c r="F19" t="n">
-        <v>31.75009393692017</v>
+        <v>26.56411337852478</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>40.77</v>
       </c>
       <c r="F20" t="n">
-        <v>31.44215726852417</v>
+        <v>26.58590602874756</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>40.64</v>
       </c>
       <c r="F21" t="n">
-        <v>32.04022836685181</v>
+        <v>26.91187143325806</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>14.44</v>
       </c>
       <c r="F2" t="n">
-        <v>32.01951289176941</v>
+        <v>27.03681397438049</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>22.06</v>
       </c>
       <c r="F3" t="n">
-        <v>32.78416132926941</v>
+        <v>26.54305362701416</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>24.72</v>
       </c>
       <c r="F4" t="n">
-        <v>32.89945936203003</v>
+        <v>26.61024308204651</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>27.39</v>
       </c>
       <c r="F5" t="n">
-        <v>32.40522623062134</v>
+        <v>26.72766065597535</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>30.03</v>
       </c>
       <c r="F6" t="n">
-        <v>31.84854936599731</v>
+        <v>26.64059782028198</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>31.34</v>
       </c>
       <c r="F7" t="n">
-        <v>31.92659711837769</v>
+        <v>26.57769894599915</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>33.38</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89913105964661</v>
+        <v>26.53677916526794</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>33.94</v>
       </c>
       <c r="F9" t="n">
-        <v>32.09278607368469</v>
+        <v>26.63611721992493</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>35.86</v>
       </c>
       <c r="F10" t="n">
-        <v>31.89676189422608</v>
+        <v>26.7058162689209</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>36.24</v>
       </c>
       <c r="F11" t="n">
-        <v>32.55154180526733</v>
+        <v>26.82839226722717</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>37.51</v>
       </c>
       <c r="F12" t="n">
-        <v>32.09472990036011</v>
+        <v>26.58232665061951</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>37.77</v>
       </c>
       <c r="F13" t="n">
-        <v>31.83859968185425</v>
+        <v>26.64230847358704</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>38.77</v>
       </c>
       <c r="F14" t="n">
-        <v>31.9099349975586</v>
+        <v>26.58404636383057</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>38.86</v>
       </c>
       <c r="F15" t="n">
-        <v>32.104740858078</v>
+        <v>26.75762128829956</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>39.3</v>
       </c>
       <c r="F16" t="n">
-        <v>31.9777512550354</v>
+        <v>26.67815589904785</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>39.87</v>
       </c>
       <c r="F17" t="n">
-        <v>31.93723845481873</v>
+        <v>26.78945422172546</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>40.38</v>
       </c>
       <c r="F18" t="n">
-        <v>31.94567394256592</v>
+        <v>26.52388954162598</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>40.87</v>
       </c>
       <c r="F19" t="n">
-        <v>32.05040240287781</v>
+        <v>26.53056931495667</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>40.96</v>
       </c>
       <c r="F20" t="n">
-        <v>31.63834524154663</v>
+        <v>26.63790011405945</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>41.85</v>
       </c>
       <c r="F21" t="n">
-        <v>32.05931210517883</v>
+        <v>26.74287104606628</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>14.26</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23731851577759</v>
+        <v>26.91141963005066</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>19.52</v>
       </c>
       <c r="F3" t="n">
-        <v>31.39557456970215</v>
+        <v>26.60600566864014</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>23.6</v>
       </c>
       <c r="F4" t="n">
-        <v>32.79642081260681</v>
+        <v>26.59395503997803</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>26.16</v>
       </c>
       <c r="F5" t="n">
-        <v>32.79449248313904</v>
+        <v>26.75175142288208</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>28.11</v>
       </c>
       <c r="F6" t="n">
-        <v>32.38032937049866</v>
+        <v>26.57131505012512</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>30.54</v>
       </c>
       <c r="F7" t="n">
-        <v>31.98731899261474</v>
+        <v>26.57181739807129</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>32.13</v>
       </c>
       <c r="F8" t="n">
-        <v>31.885906457901</v>
+        <v>26.63414788246155</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>33.65</v>
       </c>
       <c r="F9" t="n">
-        <v>31.84419989585876</v>
+        <v>26.62747812271118</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>34.1</v>
       </c>
       <c r="F10" t="n">
-        <v>32.00140476226807</v>
+        <v>26.62723565101624</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>34.97</v>
       </c>
       <c r="F11" t="n">
-        <v>32.56209373474121</v>
+        <v>26.76723003387451</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>35.96</v>
       </c>
       <c r="F12" t="n">
-        <v>32.1953821182251</v>
+        <v>26.6086974143982</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>36.55</v>
       </c>
       <c r="F13" t="n">
-        <v>31.95507168769836</v>
+        <v>26.54006791114807</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>36.93</v>
       </c>
       <c r="F14" t="n">
-        <v>32.14811372756958</v>
+        <v>26.61694264411926</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>37.22</v>
       </c>
       <c r="F15" t="n">
-        <v>31.99086594581604</v>
+        <v>26.56692719459534</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>38.53</v>
       </c>
       <c r="F16" t="n">
-        <v>31.82646727561951</v>
+        <v>26.62402892112732</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>38.42</v>
       </c>
       <c r="F17" t="n">
-        <v>32.19363760948181</v>
+        <v>26.52960801124573</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>39.1</v>
       </c>
       <c r="F18" t="n">
-        <v>31.85067558288575</v>
+        <v>26.6010799407959</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>38.97</v>
       </c>
       <c r="F19" t="n">
-        <v>31.9429898262024</v>
+        <v>26.57134222984314</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>39.44</v>
       </c>
       <c r="F20" t="n">
-        <v>31.96783638000488</v>
+        <v>26.70846152305603</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>40.15</v>
       </c>
       <c r="F21" t="n">
-        <v>32.42794680595398</v>
+        <v>26.81432223320008</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>12.75</v>
       </c>
       <c r="F2" t="n">
-        <v>32.15533947944641</v>
+        <v>26.72871327400208</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>19.49</v>
       </c>
       <c r="F3" t="n">
-        <v>31.58287787437439</v>
+        <v>26.61813116073608</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>23.83</v>
       </c>
       <c r="F4" t="n">
-        <v>31.67194795608521</v>
+        <v>26.51210427284241</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>26.73</v>
       </c>
       <c r="F5" t="n">
-        <v>32.93898582458496</v>
+        <v>26.59239172935486</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>28.74</v>
       </c>
       <c r="F6" t="n">
-        <v>32.86290884017944</v>
+        <v>26.53155565261841</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>30.92</v>
       </c>
       <c r="F7" t="n">
-        <v>32.12096095085144</v>
+        <v>26.75540685653687</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>32.37</v>
       </c>
       <c r="F8" t="n">
-        <v>31.99406027793884</v>
+        <v>26.40209197998047</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>33.64</v>
       </c>
       <c r="F9" t="n">
-        <v>32.01276683807373</v>
+        <v>26.59920716285706</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>35.55</v>
       </c>
       <c r="F10" t="n">
-        <v>32.04436111450195</v>
+        <v>26.6881160736084</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>35.84</v>
       </c>
       <c r="F11" t="n">
-        <v>32.50297927856445</v>
+        <v>26.88089323043823</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>37.04</v>
       </c>
       <c r="F12" t="n">
-        <v>31.99050498008728</v>
+        <v>26.63901042938232</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>37.46</v>
       </c>
       <c r="F13" t="n">
-        <v>31.94122242927552</v>
+        <v>26.50233554840088</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>38.11</v>
       </c>
       <c r="F14" t="n">
-        <v>32.59826683998108</v>
+        <v>26.5896999835968</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>38.42</v>
       </c>
       <c r="F15" t="n">
-        <v>32.13228464126587</v>
+        <v>26.74819898605347</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>38.74</v>
       </c>
       <c r="F16" t="n">
-        <v>31.86128330230713</v>
+        <v>26.68765830993652</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>39.4</v>
       </c>
       <c r="F17" t="n">
-        <v>32.09251594543457</v>
+        <v>26.66586971282959</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>39.69</v>
       </c>
       <c r="F18" t="n">
-        <v>31.8345353603363</v>
+        <v>26.59842848777771</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>39.64</v>
       </c>
       <c r="F19" t="n">
-        <v>31.99093914031982</v>
+        <v>26.65492725372314</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>40.08</v>
       </c>
       <c r="F20" t="n">
-        <v>32.04318237304688</v>
+        <v>26.60842227935791</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>40.65</v>
       </c>
       <c r="F21" t="n">
-        <v>32.58031940460205</v>
+        <v>26.85299611091614</v>
       </c>
     </row>
   </sheetData>
